--- a/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/90995999/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-MiniLM-L6-v2-sentence/unfreeze/ce-uniform/90995999/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9982977509498596</v>
+        <v>0.9858685731887817</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.998433530330658</v>
+        <v>0.9866229891777039</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8038941621780396</v>
+        <v>0.9442224502563477</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9787552952766418</v>
+        <v>0.8927189707756042</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9984879493713379</v>
+        <v>0.9867193102836609</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9985081553459167</v>
+        <v>0.9867281317710876</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.998516857624054</v>
+        <v>0.9868035912513733</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9984809756278992</v>
+        <v>0.9867702722549438</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.998516857624054</v>
+        <v>0.9868035912513733</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9983239769935608</v>
+        <v>0.9868046045303345</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9985418319702148</v>
+        <v>0.9869110584259033</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9933444261550903</v>
+        <v>0.9158987998962402</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9981653094291687</v>
+        <v>0.9866955280303955</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8904038667678833</v>
+        <v>0.8006580471992493</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9984758496284485</v>
+        <v>0.9866918921470642</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.998399555683136</v>
+        <v>0.986610472202301</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8533499240875244</v>
+        <v>0.7111043334007263</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9984740614891052</v>
+        <v>0.9866672158241272</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9983468055725098</v>
+        <v>0.9865410923957825</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9984710812568665</v>
+        <v>0.9868021607398987</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9984706044197083</v>
+        <v>0.9868072867393494</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9985076785087585</v>
+        <v>0.9868108630180359</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9984645843505859</v>
+        <v>0.9868382811546326</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9786989688873291</v>
+        <v>0.893663763999939</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7367110848426819</v>
+        <v>0.6154302358627319</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9984847903251648</v>
+        <v>0.9865851402282715</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.998433530330658</v>
+        <v>0.9866229891777039</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9984472393989563</v>
+        <v>0.98658686876297</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9984642267227173</v>
+        <v>0.9865438342094421</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9984431862831116</v>
+        <v>0.9864983558654785</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9984090924263</v>
+        <v>0.9864175319671631</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.98785400390625</v>
+        <v>0.9331772923469543</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9929764866828918</v>
+        <v>0.9147048592567444</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9934194684028625</v>
+        <v>0.9150986671447754</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9982686042785645</v>
+        <v>0.9866355061531067</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9933907985687256</v>
+        <v>0.9151831269264221</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9985314607620239</v>
+        <v>0.9868667125701904</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8875646591186523</v>
+        <v>0.6873055100440979</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9885584115982056</v>
+        <v>0.932255744934082</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9984814524650574</v>
+        <v>0.9867854714393616</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9890822172164917</v>
+        <v>0.8938944935798645</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9881938695907593</v>
+        <v>0.9335097074508667</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9932605624198914</v>
+        <v>0.9152700304985046</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9883880019187927</v>
+        <v>0.9326781630516052</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9861392378807068</v>
+        <v>0.9329110980033875</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9390293955802917</v>
+        <v>0.6792640686035156</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9877738356590271</v>
+        <v>0.9337977766990662</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9985278844833374</v>
+        <v>0.9869549870491028</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9877187013626099</v>
+        <v>0.9328574538230896</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9866805672645569</v>
+        <v>0.9048791527748108</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9984349608421326</v>
+        <v>0.9865072965621948</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9877187013626099</v>
+        <v>0.9328574538230896</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9874809384346008</v>
+        <v>0.931911826133728</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9985033273696899</v>
+        <v>0.9867269396781921</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9985319375991821</v>
+        <v>0.9868682622909546</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9985334873199463</v>
+        <v>0.9868027567863464</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9933104515075684</v>
+        <v>0.9157875180244446</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9985223412513733</v>
+        <v>0.9866124391555786</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9983757734298706</v>
+        <v>0.9864149689674377</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9984197616577148</v>
+        <v>0.9866558313369751</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9985175728797913</v>
+        <v>0.9868691563606262</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9934642910957336</v>
+        <v>0.9156059622764587</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.5146539211273193</v>
+        <v>0.4168636500835419</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9935439825057983</v>
+        <v>0.9155740141868591</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9935439825057983</v>
+        <v>0.9155740141868591</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9933023452758789</v>
+        <v>0.9151621460914612</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9935439825057983</v>
+        <v>0.9155740141868591</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9771678447723389</v>
+        <v>0.9106769561767578</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9984965324401855</v>
+        <v>0.9867492318153381</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9737529158592224</v>
+        <v>0.8801686763763428</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9983773231506348</v>
+        <v>0.9863079190254211</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9933364391326904</v>
+        <v>0.9155072569847107</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9985073208808899</v>
+        <v>0.9868789315223694</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9984670281410217</v>
+        <v>0.9865358471870422</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9933364391326904</v>
+        <v>0.9155072569847107</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9983845949172974</v>
+        <v>0.9865247011184692</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9933364391326904</v>
+        <v>0.9155072569847107</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9985103011131287</v>
+        <v>0.9868049621582031</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9933364391326904</v>
+        <v>0.9148197770118713</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9983990788459778</v>
+        <v>0.9865168333053589</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9933364391326904</v>
+        <v>0.9148197770118713</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9984012246131897</v>
+        <v>0.9864802956581116</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9984012246131897</v>
+        <v>0.9864802956581116</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9985324144363403</v>
+        <v>0.986894965171814</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9934265613555908</v>
+        <v>0.9152833223342896</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9983357787132263</v>
+        <v>0.9864320158958435</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.993229866027832</v>
+        <v>0.9151871204376221</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.998384952545166</v>
+        <v>0.9864532351493835</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9985029697418213</v>
+        <v>0.9868186712265015</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9985083937644958</v>
+        <v>0.9868135452270508</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9984983205795288</v>
+        <v>0.9868466258049011</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9985126852989197</v>
+        <v>0.9868049621582031</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9985063672065735</v>
+        <v>0.9868102073669434</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9985029697418213</v>
+        <v>0.9868457317352295</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9985118508338928</v>
+        <v>0.9868462681770325</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8895092606544495</v>
+        <v>0.798360288143158</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9985334873199463</v>
+        <v>0.9868432879447937</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9909870028495789</v>
+        <v>0.8841121196746826</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9984656572341919</v>
+        <v>0.9867969751358032</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9985068440437317</v>
+        <v>0.986689567565918</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9429734349250793</v>
+        <v>0.8522167205810547</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9882077574729919</v>
+        <v>0.9320379495620728</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9984341263771057</v>
+        <v>0.9864386320114136</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9778065085411072</v>
+        <v>0.9129587411880493</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9984710812568665</v>
+        <v>0.9867753982543945</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9881519675254822</v>
+        <v>0.9341626763343811</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9798074960708618</v>
+        <v>0.8980152010917664</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9984593391418457</v>
+        <v>0.9866885542869568</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.998433530330658</v>
+        <v>0.9866229891777039</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9876856803894043</v>
+        <v>0.9326557517051697</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9873892068862915</v>
+        <v>0.9324353337287903</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9932625889778137</v>
+        <v>0.9155492186546326</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9984970092773438</v>
+        <v>0.9867419600486755</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9927311539649963</v>
+        <v>0.9133727550506592</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9954031705856323</v>
+        <v>0.9819408655166626</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9984562397003174</v>
+        <v>0.9866288900375366</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9565373659133911</v>
+        <v>0.8430275321006775</v>
       </c>
     </row>
     <row r="119">
@@ -3759,14 +3759,14 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8509789109230042</v>
+        <v>0.6981951594352722</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.998433530330658</v>
+        <v>0.9866229891777039</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9772675037384033</v>
+        <v>0.9121602773666382</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.99850994348526</v>
+        <v>0.986939549446106</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9772675037384033</v>
+        <v>0.9121602773666382</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.99850994348526</v>
+        <v>0.986939549446106</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9772675037384033</v>
+        <v>0.9121602773666382</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9985277652740479</v>
+        <v>0.9868416786193848</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9654282331466675</v>
+        <v>0.8408727645874023</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.998433530330658</v>
+        <v>0.9866229891777039</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9142715930938721</v>
+        <v>0.6034684777259827</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9603180885314941</v>
+        <v>0.6554503440856934</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9984831213951111</v>
+        <v>0.986723005771637</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.5475914478302002</v>
+        <v>0.7660714387893677</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9984419941902161</v>
+        <v>0.9866982698440552</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9985080361366272</v>
+        <v>0.9865455627441406</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9984757304191589</v>
+        <v>0.9865748286247253</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9207425117492676</v>
+        <v>0.9660950303077698</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9984799027442932</v>
+        <v>0.9867462515830994</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9983991980552673</v>
+        <v>0.986650824546814</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9984669089317322</v>
+        <v>0.9866711497306824</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9984466433525085</v>
+        <v>0.9865526556968689</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8322440981864929</v>
+        <v>0.5874900221824646</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.998433530330658</v>
+        <v>0.9866229891777039</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9935270547866821</v>
+        <v>0.9146989583969116</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.998522937297821</v>
+        <v>0.9868890047073364</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9935270547866821</v>
+        <v>0.9146989583969116</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9984543323516846</v>
+        <v>0.9865577816963196</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9771678447723389</v>
+        <v>0.9106769561767578</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9985085129737854</v>
+        <v>0.9868075251579285</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9936069250106812</v>
+        <v>0.9154934883117676</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9631029963493347</v>
+        <v>0.8122825622558594</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.998433530330658</v>
+        <v>0.9866229891777039</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9698628783226013</v>
+        <v>0.8582625985145569</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9984132051467896</v>
+        <v>0.9867075681686401</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9802046418190002</v>
+        <v>0.8985506892204285</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9985172152519226</v>
+        <v>0.986838161945343</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9801912307739258</v>
+        <v>0.8979194760322571</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9985248446464539</v>
+        <v>0.9868624210357666</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.980141282081604</v>
+        <v>0.898030698299408</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9985266923904419</v>
+        <v>0.986856997013092</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9928252696990967</v>
+        <v>0.890382707118988</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9984868764877319</v>
+        <v>0.9866456389427185</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8609170913696289</v>
+        <v>0.9426258206367493</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9984379410743713</v>
+        <v>0.9866169691085815</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9930844306945801</v>
+        <v>0.91546231508255</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9985369443893433</v>
+        <v>0.9868712425231934</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9916295409202576</v>
+        <v>0.9005429744720459</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9874396324157715</v>
+        <v>0.9327546954154968</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9925647974014282</v>
+        <v>0.9147860407829285</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.998433530330658</v>
+        <v>0.9866229891777039</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9874396324157715</v>
+        <v>0.9327546954154968</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9920634627342224</v>
+        <v>0.9148209691047668</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.998433530330658</v>
+        <v>0.9866229891777039</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9984585046768188</v>
+        <v>0.9867075681686401</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9984605312347412</v>
+        <v>0.9866764545440674</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9984585046768188</v>
+        <v>0.9867075681686401</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9984585046768188</v>
+        <v>0.9867075681686401</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9984605312347412</v>
+        <v>0.9866764545440674</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9984999895095825</v>
+        <v>0.9867978692054749</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.998376727104187</v>
+        <v>0.9864896535873413</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.99847811460495</v>
+        <v>0.9865924715995789</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.998504638671875</v>
+        <v>0.9866420030593872</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9984935522079468</v>
+        <v>0.9866175055503845</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9777065515518188</v>
+        <v>0.9118014574050903</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9985300302505493</v>
+        <v>0.9868971705436707</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.998480498790741</v>
+        <v>0.9869158267974854</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.99847811460495</v>
+        <v>0.9869274497032166</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.998497486114502</v>
+        <v>0.9868534803390503</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9984865188598633</v>
+        <v>0.9867972135543823</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.998492956161499</v>
+        <v>0.9867684245109558</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9984935522079468</v>
+        <v>0.9867507815361023</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8882389664649963</v>
+        <v>0.7872068285942078</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9984923601150513</v>
+        <v>0.9867444634437561</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9984672665596008</v>
+        <v>0.9866607189178467</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9776355624198914</v>
+        <v>0.9116201400756836</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9877075552940369</v>
+        <v>0.9334014654159546</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9985178112983704</v>
+        <v>0.98692387342453</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9985305070877075</v>
+        <v>0.9868751764297485</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9985343217849731</v>
+        <v>0.9869044423103333</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9984655380249023</v>
+        <v>0.9866787791252136</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8288953304290771</v>
+        <v>0.8030835390090942</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9985013008117676</v>
+        <v>0.9867897629737854</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9984824061393738</v>
+        <v>0.9868295788764954</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9977636337280273</v>
+        <v>0.9864878058433533</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9875968098640442</v>
+        <v>0.9332353472709656</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9984970092773438</v>
+        <v>0.986858606338501</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9984592199325562</v>
+        <v>0.9867379069328308</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.8885248899459839</v>
+        <v>0.8028808832168579</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9983744621276855</v>
+        <v>0.9863309860229492</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8486819267272949</v>
+        <v>0.7191048860549927</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9984594583511353</v>
+        <v>0.9867449402809143</v>
       </c>
     </row>
   </sheetData>
